--- a/biology/Botanique/Kitaibela_vitifolia/Kitaibela_vitifolia.xlsx
+++ b/biology/Botanique/Kitaibela_vitifolia/Kitaibela_vitifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kitaibela vitifolia est une plante vivace de la famille des Malvaceae originaire de Serbie.
 </t>
@@ -511,7 +523,9 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été collectée par Pál Kitaibel, coauteur avec le comte Franz de Paula Adam von Waldstein de l'ouvrage Descriptiones et icones plantarum rariorum.
 C'est en son honneur que Willdenow dénomme le genre et, avec l'échantillon, décrit en 1799 cette espèce qui est l'espèce type du genre : Kitaibela vitifolia.
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre les caractères généraux des Malvacées, cette espèce - qui est le type du genre - dispose des caractéristiques suivantes :
 le calice compte six à neuf lobes ;
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Europe centrale : Serbie (Voïvodine). Elle croît principalement dans les terrains assez secs, pauvres et pouvant être ombragés.
 Elle est actuellement répandue dans l'ensemble des pays tempérés.
@@ -613,7 +631,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa bonne rusticité ainsi que ses faibles exigences sur la qualité du sol en ont fait une bonne plante ornementale. Sa diffusion est assurée en France par d'assez nombreux établissements horticoles.
 			Floraison
